--- a/ASPX/billpay.xlsx
+++ b/ASPX/billpay.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Banks\Preston\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CloudCoin\Documents\JoshClevenger\ASPX\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,16 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="28">
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Active</t>
-  </si>
-  <si>
-    <t>Deactive</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="14">
   <si>
     <t>PAY TO THE ORDER OF</t>
   </si>
@@ -56,24 +47,6 @@
     <t>SEND TO EMAIL</t>
   </si>
   <si>
-    <t>Sean H. Worthington</t>
-  </si>
-  <si>
-    <t>CloudCoin@Protonmail.com</t>
-  </si>
-  <si>
-    <t>Pay on Demand</t>
-  </si>
-  <si>
-    <t>Check GUID</t>
-  </si>
-  <si>
-    <t>DATE CASHED</t>
-  </si>
-  <si>
-    <t>CHECK GUID</t>
-  </si>
-  <si>
     <t>STATUS</t>
   </si>
   <si>
@@ -83,41 +56,26 @@
     <t xml:space="preserve">DAY OF THE MONTH TO PAY </t>
   </si>
   <si>
-    <t>Pending</t>
-  </si>
-  <si>
-    <t>Hold</t>
-  </si>
-  <si>
-    <t>Cancel</t>
-  </si>
-  <si>
-    <t>ACCOUNT NUMBER OF MEMO</t>
-  </si>
-  <si>
-    <t>DATE PAID</t>
-  </si>
-  <si>
     <t>ACCOUNT NUMBER OR MEMO</t>
   </si>
   <si>
-    <t>Sean@Worthington.net</t>
+    <t>DATE MOVED TO PENDING</t>
   </si>
   <si>
-    <t>4</t>
+    <t>DATE COMPLETED</t>
   </si>
   <si>
-    <t xml:space="preserve">1445 D Street. </t>
+    <t>SINGED BY</t>
   </si>
   <si>
-    <t>President Worthington</t>
+    <t>DAYS EXPIRES AFTER</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,6 +92,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF24292E"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -160,12 +125,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -481,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21CD4A47-B8C7-4E71-88EF-A09E372925A4}">
-  <dimension ref="A1:L685"/>
+  <dimension ref="A1:J685"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -497,117 +469,112 @@
     <col min="7" max="7" width="20.5703125" customWidth="1"/>
     <col min="8" max="8" width="28.7109375" customWidth="1"/>
     <col min="9" max="9" width="29.7109375" customWidth="1"/>
+    <col min="10" max="10" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
-        <v>5</v>
+      <c r="J1" t="s">
+        <v>13</v>
       </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C2" s="1"/>
       <c r="E2" s="4"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C3" s="1"/>
       <c r="E3" s="3"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C4" s="1"/>
       <c r="E4" s="3"/>
       <c r="H4" s="2"/>
-      <c r="L4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C5" s="1"/>
       <c r="E5" s="3"/>
       <c r="H5" s="2"/>
-      <c r="L5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C6" s="1"/>
       <c r="E6" s="3"/>
       <c r="H6" s="2"/>
-      <c r="L6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" s="1"/>
       <c r="E7" s="3"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C8" s="1"/>
       <c r="E8" s="3"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C9" s="1"/>
       <c r="E9" s="3"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C10" s="1"/>
       <c r="E10" s="3"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C11" s="1"/>
       <c r="E11" s="3"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C12" s="1"/>
       <c r="E12" s="3"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C13" s="1"/>
       <c r="E13" s="3"/>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C14" s="1"/>
       <c r="E14" s="3"/>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C15" s="1"/>
       <c r="E15" s="3"/>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C16" s="1"/>
       <c r="E16" s="3"/>
       <c r="H16" s="2"/>
@@ -3970,10 +3937,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31221C04-1C6B-4679-9079-8B09F2AE225C}">
-  <dimension ref="A1:L685"/>
+  <dimension ref="A1:J685"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:I1"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3986,141 +3953,112 @@
     <col min="7" max="7" width="20.5703125" customWidth="1"/>
     <col min="8" max="8" width="28.7109375" customWidth="1"/>
     <col min="9" max="9" width="29.7109375" customWidth="1"/>
+    <col min="10" max="10" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
-        <v>5</v>
+      <c r="J1" t="s">
+        <v>13</v>
       </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2">
-        <v>552254</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2">
-        <v>25</v>
-      </c>
-      <c r="G2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C2" s="2"/>
+      <c r="E2" s="4"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C3" s="1"/>
       <c r="E3" s="3"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C4" s="1"/>
       <c r="E4" s="3"/>
       <c r="H4" s="2"/>
-      <c r="L4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C5" s="1"/>
       <c r="E5" s="3"/>
       <c r="H5" s="2"/>
-      <c r="L5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C6" s="1"/>
       <c r="E6" s="3"/>
       <c r="H6" s="2"/>
-      <c r="L6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" s="1"/>
       <c r="E7" s="3"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C8" s="1"/>
       <c r="E8" s="3"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C9" s="1"/>
       <c r="E9" s="3"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C10" s="1"/>
       <c r="E10" s="3"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C11" s="1"/>
       <c r="E11" s="3"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C12" s="1"/>
       <c r="E12" s="3"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C13" s="1"/>
       <c r="E13" s="3"/>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C14" s="1"/>
       <c r="E14" s="3"/>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C15" s="1"/>
       <c r="E15" s="3"/>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C16" s="1"/>
       <c r="E16" s="3"/>
       <c r="H16" s="2"/>
@@ -7476,132 +7414,128 @@
       <formula1>$L$5:$L$6</formula1>
     </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{43C273D6-A3A3-47DC-85A5-3E02967F2235}"/>
-    <hyperlink ref="H2" r:id="rId2" xr:uid="{D95C1D83-0698-4A77-A095-3725E2834FDE}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FABD2972-F50A-4135-B008-E9A2CE184C42}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" customWidth="1"/>
+    <col min="1" max="1" width="16" customWidth="1"/>
     <col min="2" max="2" width="27.7109375" customWidth="1"/>
     <col min="3" max="3" width="31" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" customWidth="1"/>
+    <col min="4" max="4" width="36.28515625" customWidth="1"/>
     <col min="5" max="5" width="31.28515625" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" customWidth="1"/>
-    <col min="8" max="8" width="13" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" customWidth="1"/>
-    <col min="10" max="10" width="30" customWidth="1"/>
+    <col min="6" max="7" width="12.28515625" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" customWidth="1"/>
+    <col min="9" max="9" width="31.140625" customWidth="1"/>
+    <col min="10" max="10" width="21.7109375" customWidth="1"/>
+    <col min="11" max="11" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>15</v>
+    <row r="1" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>6</v>
       </c>
-      <c r="B1" t="s">
-        <v>14</v>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="I1" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I9" t="s">
-        <v>20</v>
+      <c r="J1" s="6" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2" xr:uid="{4C515ADC-D00E-4FB0-BF16-F1777BA2C775}">
-      <formula1>$I$6:$I$8</formula1>
+      <formula1>$J$6:$J$8</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{D37F9AE2-9B62-42E6-B29A-3C78E29DA6D3}">
-      <formula1>$I$7:$I$9</formula1>
+      <formula1>$J$7:$J$9</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6B83DB2-B53D-4652-B759-406B2C358B9C}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="1"/>
-    <col min="2" max="2" width="27.5703125" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" customWidth="1"/>
+    <col min="2" max="3" width="27.5703125" customWidth="1"/>
     <col min="4" max="4" width="28.28515625" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="33.42578125" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" customWidth="1"/>
+    <col min="9" max="9" width="31.85546875" customWidth="1"/>
+    <col min="10" max="10" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>12</v>
+    <row r="1" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>6</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
-        <v>8</v>
+      <c r="I1" s="9" t="s">
+        <v>4</v>
       </c>
-      <c r="D1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
+      <c r="J1" s="8" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/ASPX/billpay.xlsx
+++ b/ASPX/billpay.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CloudCoin\Documents\JoshClevenger\ASPX\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CloudCoin\Documents\JoshClevenger\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26160" windowHeight="17085" xr2:uid="{2BF06CB2-4350-4831-A0AC-F09190E8BE99}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26160" windowHeight="17085" activeTab="2" xr2:uid="{2BF06CB2-4350-4831-A0AC-F09190E8BE99}"/>
   </bookViews>
   <sheets>
     <sheet name="Reoccurring" sheetId="1" r:id="rId1"/>
@@ -59,16 +59,16 @@
     <t>ACCOUNT NUMBER OR MEMO</t>
   </si>
   <si>
-    <t>DATE MOVED TO PENDING</t>
-  </si>
-  <si>
     <t>DATE COMPLETED</t>
   </si>
   <si>
-    <t>SINGED BY</t>
+    <t>DAYS EXPIRES AFTER</t>
   </si>
   <si>
-    <t>DAYS EXPIRES AFTER</t>
+    <t>CHECK ID</t>
+  </si>
+  <si>
+    <t>DATE MOVED TO PENDING</t>
   </si>
 </sst>
 </file>
@@ -125,7 +125,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -138,6 +138,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="22" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -455,7 +457,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21CD4A47-B8C7-4E71-88EF-A09E372925A4}">
   <dimension ref="A1:J685"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -501,7 +503,7 @@
         <v>4</v>
       </c>
       <c r="J1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -3985,7 +3987,7 @@
         <v>4</v>
       </c>
       <c r="J1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -7420,65 +7422,71 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FABD2972-F50A-4135-B008-E9A2CE184C42}">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="27.7109375" customWidth="1"/>
-    <col min="3" max="3" width="31" customWidth="1"/>
-    <col min="4" max="4" width="36.28515625" customWidth="1"/>
-    <col min="5" max="5" width="31.28515625" customWidth="1"/>
-    <col min="6" max="7" width="12.28515625" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" customWidth="1"/>
-    <col min="9" max="9" width="31.140625" customWidth="1"/>
-    <col min="10" max="10" width="21.7109375" customWidth="1"/>
-    <col min="11" max="11" width="30" customWidth="1"/>
+    <col min="1" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="24" customWidth="1"/>
+    <col min="4" max="4" width="27.7109375" customWidth="1"/>
+    <col min="5" max="5" width="31" customWidth="1"/>
+    <col min="6" max="6" width="29.140625" customWidth="1"/>
+    <col min="7" max="7" width="31.28515625" customWidth="1"/>
+    <col min="8" max="9" width="12.28515625" customWidth="1"/>
+    <col min="10" max="10" width="29.85546875" customWidth="1"/>
+    <col min="11" max="11" width="31.140625" customWidth="1"/>
+    <col min="12" max="12" width="21.7109375" customWidth="1"/>
+    <col min="13" max="13" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>10</v>
+      <c r="F1" s="7" t="s">
+        <v>13</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>12</v>
+      <c r="H1" s="6" t="s">
+        <v>2</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G2" s="11"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2" xr:uid="{4C515ADC-D00E-4FB0-BF16-F1777BA2C775}">
-      <formula1>$J$6:$J$8</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2" xr:uid="{4C515ADC-D00E-4FB0-BF16-F1777BA2C775}">
+      <formula1>$L$6:$L$8</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{D37F9AE2-9B62-42E6-B29A-3C78E29DA6D3}">
-      <formula1>$J$7:$J$9</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:C2" xr:uid="{D37F9AE2-9B62-42E6-B29A-3C78E29DA6D3}">
+      <formula1>$L$7:$L$9</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7490,15 +7498,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6B83DB2-B53D-4652-B759-406B2C358B9C}">
   <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="27.5703125" customWidth="1"/>
-    <col min="4" max="4" width="28.28515625" customWidth="1"/>
-    <col min="5" max="5" width="33.42578125" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="4" width="27.5703125" customWidth="1"/>
+    <col min="5" max="5" width="28.28515625" customWidth="1"/>
     <col min="6" max="6" width="15.140625" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
     <col min="8" max="8" width="14.42578125" customWidth="1"/>
@@ -7511,16 +7519,16 @@
         <v>6</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>9</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>10</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>1</v>
@@ -7535,7 +7543,7 @@
         <v>4</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/ASPX/billpay.xlsx
+++ b/ASPX/billpay.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CloudCoin\Documents\JoshClevenger\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CloudCoin\Documents\JoshClevenger\ASPX\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="17">
   <si>
     <t>PAY TO THE ORDER OF</t>
   </si>
@@ -69,6 +69,15 @@
   </si>
   <si>
     <t>DATE MOVED TO PENDING</t>
+  </si>
+  <si>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t>b84fc496-7692-f5b2-50ab-578f48a8143e</t>
+  </si>
+  <si>
+    <t>lonex@pacbell.net</t>
   </si>
 </sst>
 </file>
@@ -7422,7 +7431,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FABD2972-F50A-4135-B008-E9A2CE184C42}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K8" sqref="K8"/>
@@ -7479,6 +7488,26 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G2" s="11"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="11">
+        <v>43133.492418981485</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="2">

--- a/ASPX/billpay.xlsx
+++ b/ASPX/billpay.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CloudCoin\Documents\JoshClevenger\ASPX\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CloudCoin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26160" windowHeight="17085" activeTab="2" xr2:uid="{2BF06CB2-4350-4831-A0AC-F09190E8BE99}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="2" xr2:uid="{2BF06CB2-4350-4831-A0AC-F09190E8BE99}"/>
   </bookViews>
   <sheets>
     <sheet name="Reoccurring" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="14">
   <si>
     <t>PAY TO THE ORDER OF</t>
   </si>
@@ -69,15 +69,6 @@
   </si>
   <si>
     <t>DATE MOVED TO PENDING</t>
-  </si>
-  <si>
-    <t>Pending</t>
-  </si>
-  <si>
-    <t>b84fc496-7692-f5b2-50ab-578f48a8143e</t>
-  </si>
-  <si>
-    <t>lonex@pacbell.net</t>
   </si>
 </sst>
 </file>
@@ -7431,10 +7422,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FABD2972-F50A-4135-B008-E9A2CE184C42}">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7489,33 +7480,13 @@
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G2" s="11"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="11">
-        <v>43133.492418981485</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="I3" t="s">
-        <v>16</v>
-      </c>
-    </row>
   </sheetData>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2" xr:uid="{4C515ADC-D00E-4FB0-BF16-F1777BA2C775}">
-      <formula1>$L$6:$L$8</formula1>
+      <formula1>$L$5:$L$7</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:C2" xr:uid="{D37F9AE2-9B62-42E6-B29A-3C78E29DA6D3}">
-      <formula1>$L$7:$L$9</formula1>
+      <formula1>$L$6:$L$8</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
